--- a/WP2-WP3/model/symbology/Mapping-INTERLIS-SE.xlsx
+++ b/WP2-WP3/model/symbology/Mapping-INTERLIS-SE.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/maxime_collombi_hes-so_ch/Documents/Bureau/FGDM4GS/WP2-WP3/model/symbology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{84259C4E-1FFF-42CA-A79D-9AF2390EFAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{1E369814-3F96-49C1-AB25-827D89520936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2760" yWindow="2760" windowWidth="19755" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26670" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="PointSymbolizer" sheetId="2" r:id="rId2"/>
+    <sheet name="TextSymbolizer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="30">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="50" uniqueCount="32">
   <si>
     <t>OGC SE</t>
   </si>
@@ -129,19 +131,40 @@
   </si>
   <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,10 +184,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,13 +197,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -503,214 +540,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+    <row r="23" spans="2:4">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D10 C11 D24 D26:D1048576 D12:D20">
+  <conditionalFormatting sqref="C12 D23:E23 D25:E1048576 D1:E11 D13:E19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -718,4 +743,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0298E895-E270-4654-BC31-7325E095D273}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0259BC-E2D6-4EFF-AE00-FDF6E0A830DF}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>